--- a/02_PECs/Gantt Project.xlsx
+++ b/02_PECs/Gantt Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique\OneDrive\Escritorio\Documents\07_Universitat\master_bioinfo\MGA_TFM_UOC_2023-2024_28022024\02_PECs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC672A1-E5F0-4A11-857D-4A5B496A9953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BF0DF5-2E81-478D-9D58-330D55B59620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{EDC1CD5A-773F-4B8A-A8C8-42C29A5E60C2}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{EDC1CD5A-773F-4B8A-A8C8-42C29A5E60C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
     <t>Quality Control</t>
   </si>
   <si>
-    <t>Liana Analysis</t>
-  </si>
-  <si>
     <t>Gantt Diagram of the followed timeline during the project.</t>
+  </si>
+  <si>
+    <t>CCC Analysis</t>
   </si>
 </sst>
 </file>
@@ -301,7 +301,7 @@
                   <c:v>Cluster markers analysis and Phenotypic Characterization</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Liana Analysis</c:v>
+                  <c:v>CCC Analysis</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Biological description</c:v>
@@ -443,6 +443,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6C6B-4B34-9C04-E0E4B689F6FC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -457,6 +462,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6C6B-4B34-9C04-E0E4B689F6FC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -482,7 +492,7 @@
                   <c:v>Cluster markers analysis and Phenotypic Characterization</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Liana Analysis</c:v>
+                  <c:v>CCC Analysis</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Biological description</c:v>
@@ -1613,7 +1623,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1899,7 +1909,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
         <f>B11+7*3</f>
@@ -1914,7 +1924,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="2">
         <f>B12</f>
@@ -2076,7 +2086,7 @@
     </row>
     <row r="43" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
